--- a/ESCALA_FINAL_COMPLETA.xlsx
+++ b/ESCALA_FINAL_COMPLETA.xlsx
@@ -633,7 +633,11 @@
           <t>Quarta</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Ramon Galvão Zeferino</t>
+        </is>
+      </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
           <t>Cassio Henrique de Souza</t>
@@ -699,7 +703,11 @@
           <t>Sexta</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr"/>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Rodrigo Cruz dos Santos</t>
+        </is>
+      </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
           <t>Ana Carolina H. de Miranda Castro</t>
@@ -800,7 +808,11 @@
           <t>Segunda</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr"/>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>Thais Emi Fujihara</t>
+        </is>
+      </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
           <t>Cassio Henrique de Souza</t>
@@ -866,7 +878,11 @@
           <t>Quarta</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr"/>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>Paulo Emilio Terra</t>
+        </is>
+      </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
           <t>Muriel D’Avila da Cunha</t>
@@ -897,7 +913,11 @@
           <t>Quinta</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr"/>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>Rafael Mandu</t>
+        </is>
+      </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
           <t>Nivaldo Souza Ferreira Junior</t>
@@ -1033,7 +1053,11 @@
           <t>Segunda</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr"/>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>Nivaldo Souza Ferreira Junior</t>
+        </is>
+      </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
           <t>Paulo Emilio Terra</t>
@@ -1064,7 +1088,11 @@
           <t>Terça</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr"/>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>Ana Carolina H. de Miranda Castro</t>
+        </is>
+      </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
           <t>Rafael Mandu</t>
@@ -1130,7 +1158,11 @@
           <t>Quinta</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr"/>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>André Silva Dzindzik</t>
+        </is>
+      </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
           <t>Cassio Henrique de Souza</t>
@@ -1301,7 +1333,11 @@
           <t>Terça</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr"/>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>Wellinghton Yugi Daikubara</t>
+        </is>
+      </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
           <t>Cassio Henrique de Souza</t>
@@ -1367,7 +1403,11 @@
           <t>Quinta</t>
         </is>
       </c>
-      <c r="C26" s="4" t="inlineStr"/>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>Wellinghton Yugi Daikubara</t>
+        </is>
+      </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
           <t>Thais Emi Fujihara</t>
@@ -1398,7 +1438,11 @@
           <t>Sexta</t>
         </is>
       </c>
-      <c r="C27" s="4" t="inlineStr"/>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>Ramon Galvão Zeferino</t>
+        </is>
+      </c>
       <c r="D27" s="5" t="inlineStr">
         <is>
           <t>Isabelle Sousa Falcão</t>
@@ -1534,7 +1578,11 @@
           <t>Terça</t>
         </is>
       </c>
-      <c r="C31" s="4" t="inlineStr"/>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>Thais Emi Fujihara</t>
+        </is>
+      </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
           <t>Rodrigo Cruz dos Santos</t>
@@ -1565,7 +1613,11 @@
           <t>Quarta</t>
         </is>
       </c>
-      <c r="C32" s="4" t="inlineStr"/>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>Anderson Sérgio Romão</t>
+        </is>
+      </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
           <t>Ana Carolina H. de Miranda Castro</t>
@@ -1631,7 +1683,11 @@
           <t>Sexta</t>
         </is>
       </c>
-      <c r="C34" s="8" t="inlineStr"/>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>Rodrigo Cruz dos Santos</t>
+        </is>
+      </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
           <t>Cassio Henrique de Souza</t>
@@ -1732,7 +1788,11 @@
           <t>Segunda</t>
         </is>
       </c>
-      <c r="C37" s="8" t="inlineStr"/>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>Andreza de Oliveira Santos Prestes</t>
+        </is>
+      </c>
       <c r="D37" s="8" t="inlineStr">
         <is>
           <t>Anderson Sérgio Romão</t>
@@ -1798,7 +1858,11 @@
           <t>Quarta</t>
         </is>
       </c>
-      <c r="C39" s="8" t="inlineStr"/>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>Bruno Miranda Maciozek</t>
+        </is>
+      </c>
       <c r="D39" s="8" t="inlineStr">
         <is>
           <t>Cassio Henrique de Souza</t>
@@ -1864,7 +1928,11 @@
           <t>Sexta</t>
         </is>
       </c>
-      <c r="C41" s="8" t="inlineStr"/>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>Douglas Miller Morais</t>
+        </is>
+      </c>
       <c r="D41" s="9" t="inlineStr">
         <is>
           <t>João Lucas Vieira Caetano</t>
@@ -1965,7 +2033,11 @@
           <t>Segunda</t>
         </is>
       </c>
-      <c r="C44" s="8" t="inlineStr"/>
+      <c r="C44" s="8" t="inlineStr">
+        <is>
+          <t>Isabelle Sousa Falcão</t>
+        </is>
+      </c>
       <c r="D44" s="8" t="inlineStr">
         <is>
           <t>Cassio Henrique de Souza</t>
@@ -2031,7 +2103,11 @@
           <t>Quarta</t>
         </is>
       </c>
-      <c r="C46" s="8" t="inlineStr"/>
+      <c r="C46" s="8" t="inlineStr">
+        <is>
+          <t>Fabricio Ortolan</t>
+        </is>
+      </c>
       <c r="D46" s="8" t="inlineStr">
         <is>
           <t>Bruno Miranda Maciozek</t>
@@ -2062,7 +2138,11 @@
           <t>Quinta</t>
         </is>
       </c>
-      <c r="C47" s="8" t="inlineStr"/>
+      <c r="C47" s="8" t="inlineStr">
+        <is>
+          <t>João Lucas Vieira Caetano</t>
+        </is>
+      </c>
       <c r="D47" s="8" t="inlineStr">
         <is>
           <t>Douglas Miller Morais</t>
@@ -2198,7 +2278,11 @@
           <t>Segunda</t>
         </is>
       </c>
-      <c r="C51" s="8" t="inlineStr"/>
+      <c r="C51" s="8" t="inlineStr">
+        <is>
+          <t>Karoliny Neves Marques</t>
+        </is>
+      </c>
       <c r="D51" s="8" t="inlineStr">
         <is>
           <t>Isabelle Sousa Falcão</t>
@@ -2229,7 +2313,11 @@
           <t>Terça</t>
         </is>
       </c>
-      <c r="C52" s="8" t="inlineStr"/>
+      <c r="C52" s="8" t="inlineStr">
+        <is>
+          <t>Laryssa Grandis de Lima</t>
+        </is>
+      </c>
       <c r="D52" s="8" t="inlineStr">
         <is>
           <t>Fabricio Ortolan</t>
@@ -2295,7 +2383,11 @@
           <t>Quinta</t>
         </is>
       </c>
-      <c r="C54" s="8" t="inlineStr"/>
+      <c r="C54" s="8" t="inlineStr">
+        <is>
+          <t>Leandro dos Santos Pestana</t>
+        </is>
+      </c>
       <c r="D54" s="8" t="inlineStr">
         <is>
           <t>Cassio Henrique de Souza</t>
@@ -2466,7 +2558,11 @@
           <t>Terça</t>
         </is>
       </c>
-      <c r="C59" s="8" t="inlineStr"/>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>Muriel D’Avila da Cunha</t>
+        </is>
+      </c>
       <c r="D59" s="8" t="inlineStr">
         <is>
           <t>Cassio Henrique de Souza</t>
@@ -2532,7 +2628,11 @@
           <t>Quinta</t>
         </is>
       </c>
-      <c r="C61" s="8" t="inlineStr"/>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>Nivaldo Souza Ferreira Junior</t>
+        </is>
+      </c>
       <c r="D61" s="8" t="inlineStr">
         <is>
           <t>Karoliny Neves Marques</t>
@@ -2563,7 +2663,11 @@
           <t>Sexta</t>
         </is>
       </c>
-      <c r="C62" s="8" t="inlineStr"/>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>Paulo Emilio Terra</t>
+        </is>
+      </c>
       <c r="D62" s="9" t="inlineStr">
         <is>
           <t>Rafael Mandu</t>
@@ -2699,7 +2803,11 @@
           <t>Terça</t>
         </is>
       </c>
-      <c r="C66" s="4" t="inlineStr"/>
+      <c r="C66" s="4" t="inlineStr">
+        <is>
+          <t>Rafael Mandu</t>
+        </is>
+      </c>
       <c r="D66" s="4" t="inlineStr">
         <is>
           <t>Leandro dos Santos Pestana</t>
@@ -2730,7 +2838,11 @@
           <t>Quarta</t>
         </is>
       </c>
-      <c r="C67" s="4" t="inlineStr"/>
+      <c r="C67" s="4" t="inlineStr">
+        <is>
+          <t>Rodrigo Cruz dos Santos</t>
+        </is>
+      </c>
       <c r="D67" s="4" t="inlineStr">
         <is>
           <t>Nivaldo Souza Ferreira Junior</t>
@@ -2796,7 +2908,11 @@
           <t>Sexta</t>
         </is>
       </c>
-      <c r="C69" s="4" t="inlineStr"/>
+      <c r="C69" s="4" t="inlineStr">
+        <is>
+          <t>Thais Emi Fujihara</t>
+        </is>
+      </c>
       <c r="D69" s="10" t="inlineStr">
         <is>
           <t>Cassio Henrique de Souza</t>
@@ -2897,7 +3013,11 @@
           <t>Segunda</t>
         </is>
       </c>
-      <c r="C72" s="4" t="inlineStr"/>
+      <c r="C72" s="4" t="inlineStr">
+        <is>
+          <t>Wellinghton Yugi Daikubara</t>
+        </is>
+      </c>
       <c r="D72" s="4" t="inlineStr">
         <is>
           <t>Paulo Emilio Terra</t>
@@ -2963,7 +3083,11 @@
           <t>Quarta</t>
         </is>
       </c>
-      <c r="C74" s="4" t="inlineStr"/>
+      <c r="C74" s="4" t="inlineStr">
+        <is>
+          <t>Ana Carolina H. de Miranda Castro</t>
+        </is>
+      </c>
       <c r="D74" s="4" t="inlineStr">
         <is>
           <t>Cassio Henrique de Souza</t>
@@ -3029,7 +3153,11 @@
           <t>Sexta</t>
         </is>
       </c>
-      <c r="C76" s="4" t="inlineStr"/>
+      <c r="C76" s="4" t="inlineStr">
+        <is>
+          <t>Anderson Sérgio Romão</t>
+        </is>
+      </c>
       <c r="D76" s="10" t="inlineStr">
         <is>
           <t>Wellinghton Yugi Daikubara</t>
@@ -3130,7 +3258,11 @@
           <t>Segunda</t>
         </is>
       </c>
-      <c r="C79" s="4" t="inlineStr"/>
+      <c r="C79" s="4" t="inlineStr">
+        <is>
+          <t>André Silva Dzindzik</t>
+        </is>
+      </c>
       <c r="D79" s="4" t="inlineStr">
         <is>
           <t>Cassio Henrique de Souza</t>
@@ -3196,7 +3328,11 @@
           <t>Quarta</t>
         </is>
       </c>
-      <c r="C81" s="4" t="inlineStr"/>
+      <c r="C81" s="4" t="inlineStr">
+        <is>
+          <t>Andreza de Oliveira Santos Prestes</t>
+        </is>
+      </c>
       <c r="D81" s="4" t="inlineStr">
         <is>
           <t>Ramon Galvão Zeferino</t>
@@ -3227,7 +3363,11 @@
           <t>Quinta</t>
         </is>
       </c>
-      <c r="C82" s="4" t="inlineStr"/>
+      <c r="C82" s="4" t="inlineStr">
+        <is>
+          <t>Bruno Miranda Maciozek</t>
+        </is>
+      </c>
       <c r="D82" s="4" t="inlineStr">
         <is>
           <t>Rodrigo Cruz dos Santos</t>
@@ -3363,7 +3503,11 @@
           <t>Segunda</t>
         </is>
       </c>
-      <c r="C86" s="4" t="inlineStr"/>
+      <c r="C86" s="4" t="inlineStr">
+        <is>
+          <t>Douglas Miller Morais</t>
+        </is>
+      </c>
       <c r="D86" s="4" t="inlineStr">
         <is>
           <t>Thais Emi Fujihara</t>
@@ -3394,7 +3538,11 @@
           <t>Terça</t>
         </is>
       </c>
-      <c r="C87" s="4" t="inlineStr"/>
+      <c r="C87" s="4" t="inlineStr">
+        <is>
+          <t>Ramon Galvão Zeferino</t>
+        </is>
+      </c>
       <c r="D87" s="4" t="inlineStr">
         <is>
           <t>Wellinghton Yugi Daikubara</t>
@@ -3460,7 +3608,11 @@
           <t>Quinta</t>
         </is>
       </c>
-      <c r="C89" s="4" t="inlineStr"/>
+      <c r="C89" s="4" t="inlineStr">
+        <is>
+          <t>Isabelle Sousa Falcão</t>
+        </is>
+      </c>
       <c r="D89" s="4" t="inlineStr">
         <is>
           <t>Cassio Henrique de Souza</t>
@@ -3631,7 +3783,11 @@
           <t>Terça</t>
         </is>
       </c>
-      <c r="C94" s="4" t="inlineStr"/>
+      <c r="C94" s="4" t="inlineStr">
+        <is>
+          <t>Fabricio Ortolan</t>
+        </is>
+      </c>
       <c r="D94" s="4" t="inlineStr">
         <is>
           <t>Cassio Henrique de Souza</t>
@@ -3697,7 +3853,11 @@
           <t>Quinta</t>
         </is>
       </c>
-      <c r="C96" s="8" t="inlineStr"/>
+      <c r="C96" s="8" t="inlineStr">
+        <is>
+          <t>João Lucas Vieira Caetano</t>
+        </is>
+      </c>
       <c r="D96" s="8" t="inlineStr">
         <is>
           <t>Anderson Sérgio Romão</t>
@@ -3728,7 +3888,11 @@
           <t>Sexta</t>
         </is>
       </c>
-      <c r="C97" s="8" t="inlineStr"/>
+      <c r="C97" s="8" t="inlineStr">
+        <is>
+          <t>Karoliny Neves Marques</t>
+        </is>
+      </c>
       <c r="D97" s="9" t="inlineStr">
         <is>
           <t>Bruno Miranda Maciozek</t>
@@ -3824,7 +3988,11 @@
           <t>Terça</t>
         </is>
       </c>
-      <c r="C101" s="8" t="inlineStr"/>
+      <c r="C101" s="8" t="inlineStr">
+        <is>
+          <t>Laryssa Grandis de Lima</t>
+        </is>
+      </c>
       <c r="D101" s="8" t="inlineStr">
         <is>
           <t>Andreza de Oliveira Santos Prestes</t>
@@ -3845,7 +4013,11 @@
           <t>Quarta</t>
         </is>
       </c>
-      <c r="C102" s="8" t="inlineStr"/>
+      <c r="C102" s="8" t="inlineStr">
+        <is>
+          <t>Leandro dos Santos Pestana</t>
+        </is>
+      </c>
       <c r="D102" s="8" t="inlineStr">
         <is>
           <t>Bruno Miranda Maciozek</t>
@@ -3866,7 +4038,11 @@
           <t>Quinta</t>
         </is>
       </c>
-      <c r="C103" s="8" t="inlineStr"/>
+      <c r="C103" s="8" t="inlineStr">
+        <is>
+          <t>Muriel D’Avila da Cunha</t>
+        </is>
+      </c>
       <c r="D103" s="8" t="inlineStr">
         <is>
           <t>Julio Cesar Melo Krueger</t>
@@ -3887,7 +4063,11 @@
           <t>Sexta</t>
         </is>
       </c>
-      <c r="C104" s="8" t="inlineStr"/>
+      <c r="C104" s="8" t="inlineStr">
+        <is>
+          <t>Nivaldo Souza Ferreira Junior</t>
+        </is>
+      </c>
       <c r="D104" s="9" t="inlineStr">
         <is>
           <t>Isabelle Sousa Falcão</t>
@@ -3958,7 +4138,11 @@
           <t>Segunda</t>
         </is>
       </c>
-      <c r="C107" s="8" t="inlineStr"/>
+      <c r="C107" s="8" t="inlineStr">
+        <is>
+          <t>Paulo Emilio Terra</t>
+        </is>
+      </c>
       <c r="D107" s="8" t="inlineStr">
         <is>
           <t>Douglas Miller Morais</t>
@@ -3979,7 +4163,11 @@
           <t>Terça</t>
         </is>
       </c>
-      <c r="C108" s="8" t="inlineStr"/>
+      <c r="C108" s="8" t="inlineStr">
+        <is>
+          <t>Rafael Mandu</t>
+        </is>
+      </c>
       <c r="D108" s="8" t="inlineStr">
         <is>
           <t>Julio Cesar Melo Krueger</t>
@@ -4000,7 +4188,11 @@
           <t>Quarta</t>
         </is>
       </c>
-      <c r="C109" s="8" t="inlineStr"/>
+      <c r="C109" s="8" t="inlineStr">
+        <is>
+          <t>Ramon Galvão Zeferino</t>
+        </is>
+      </c>
       <c r="D109" s="8" t="inlineStr">
         <is>
           <t>Isabelle Sousa Falcão</t>
@@ -4046,7 +4238,11 @@
           <t>Sexta</t>
         </is>
       </c>
-      <c r="C111" s="8" t="inlineStr"/>
+      <c r="C111" s="8" t="inlineStr">
+        <is>
+          <t>Rodrigo Cruz dos Santos</t>
+        </is>
+      </c>
       <c r="D111" s="9" t="inlineStr">
         <is>
           <t>Karoliny Neves Marques</t>
@@ -4117,7 +4313,11 @@
           <t>Segunda</t>
         </is>
       </c>
-      <c r="C114" s="8" t="inlineStr"/>
+      <c r="C114" s="8" t="inlineStr">
+        <is>
+          <t>Thais Emi Fujihara</t>
+        </is>
+      </c>
       <c r="D114" s="8" t="inlineStr">
         <is>
           <t>João Lucas Vieira Caetano</t>
@@ -4163,7 +4363,11 @@
           <t>Quarta</t>
         </is>
       </c>
-      <c r="C116" s="8" t="inlineStr"/>
+      <c r="C116" s="8" t="inlineStr">
+        <is>
+          <t>Wellinghton Yugi Daikubara</t>
+        </is>
+      </c>
       <c r="D116" s="8" t="inlineStr">
         <is>
           <t>Laryssa Grandis de Lima</t>
@@ -4184,7 +4388,11 @@
           <t>Quinta</t>
         </is>
       </c>
-      <c r="C117" s="8" t="inlineStr"/>
+      <c r="C117" s="8" t="inlineStr">
+        <is>
+          <t>Ana Carolina H. de Miranda Castro</t>
+        </is>
+      </c>
       <c r="D117" s="8" t="inlineStr">
         <is>
           <t>Leandro dos Santos Pestana</t>
@@ -4205,7 +4413,11 @@
           <t>Sexta</t>
         </is>
       </c>
-      <c r="C118" s="8" t="inlineStr"/>
+      <c r="C118" s="8" t="inlineStr">
+        <is>
+          <t>Andreza de Oliveira Santos Prestes</t>
+        </is>
+      </c>
       <c r="D118" s="9" t="inlineStr">
         <is>
           <t>Julio Cesar Melo Krueger</t>
@@ -4276,7 +4488,11 @@
           <t>Segunda</t>
         </is>
       </c>
-      <c r="C121" s="8" t="inlineStr"/>
+      <c r="C121" s="8" t="inlineStr">
+        <is>
+          <t>Anderson Sérgio Romão</t>
+        </is>
+      </c>
       <c r="D121" s="8" t="inlineStr">
         <is>
           <t>Paulo Emilio Terra</t>
@@ -4297,7 +4513,11 @@
           <t>Terça</t>
         </is>
       </c>
-      <c r="C122" s="8" t="inlineStr"/>
+      <c r="C122" s="8" t="inlineStr">
+        <is>
+          <t>Douglas Miller Morais</t>
+        </is>
+      </c>
       <c r="D122" s="8" t="inlineStr">
         <is>
           <t>Nivaldo Souza Ferreira Junior</t>
@@ -4318,7 +4538,11 @@
           <t>Quarta</t>
         </is>
       </c>
-      <c r="C123" s="8" t="inlineStr"/>
+      <c r="C123" s="8" t="inlineStr">
+        <is>
+          <t>Isabelle Sousa Falcão</t>
+        </is>
+      </c>
       <c r="D123" s="8" t="inlineStr">
         <is>
           <t>Julio Cesar Melo Krueger</t>
@@ -4339,7 +4563,11 @@
           <t>Quinta</t>
         </is>
       </c>
-      <c r="C124" s="8" t="inlineStr"/>
+      <c r="C124" s="8" t="inlineStr">
+        <is>
+          <t>Fabricio Ortolan</t>
+        </is>
+      </c>
       <c r="D124" s="8" t="inlineStr">
         <is>
           <t>Rafael Mandu</t>
@@ -4460,7 +4688,11 @@
           <t>Terça</t>
         </is>
       </c>
-      <c r="C129" s="12" t="inlineStr"/>
+      <c r="C129" s="12" t="inlineStr">
+        <is>
+          <t>Bruno Miranda Maciozek</t>
+        </is>
+      </c>
       <c r="D129" s="4" t="inlineStr">
         <is>
           <t>Cassio Henrique de Souza</t>
@@ -4506,7 +4738,11 @@
           <t>Quinta</t>
         </is>
       </c>
-      <c r="C131" s="12" t="inlineStr"/>
+      <c r="C131" s="12" t="inlineStr">
+        <is>
+          <t>João Lucas Vieira Caetano</t>
+        </is>
+      </c>
       <c r="D131" s="4" t="inlineStr">
         <is>
           <t>Thais Emi Fujihara</t>
@@ -4527,7 +4763,11 @@
           <t>Sexta</t>
         </is>
       </c>
-      <c r="C132" s="4" t="inlineStr"/>
+      <c r="C132" s="4" t="inlineStr">
+        <is>
+          <t>Karoliny Neves Marques</t>
+        </is>
+      </c>
       <c r="D132" s="10" t="inlineStr">
         <is>
           <t>Rodrigo Cruz dos Santos</t>
@@ -4663,7 +4903,11 @@
           <t>Terça</t>
         </is>
       </c>
-      <c r="C136" s="4" t="inlineStr"/>
+      <c r="C136" s="4" t="inlineStr">
+        <is>
+          <t>Laryssa Grandis de Lima</t>
+        </is>
+      </c>
       <c r="D136" s="12" t="inlineStr">
         <is>
           <t>Wellinghton Yugi Daikubara</t>
@@ -4694,7 +4938,11 @@
           <t>Quarta</t>
         </is>
       </c>
-      <c r="C137" s="4" t="inlineStr"/>
+      <c r="C137" s="4" t="inlineStr">
+        <is>
+          <t>André Silva Dzindzik</t>
+        </is>
+      </c>
       <c r="D137" s="4" t="inlineStr">
         <is>
           <t>Muriel D’Avila da Cunha</t>
@@ -4760,7 +5008,11 @@
           <t>Sexta</t>
         </is>
       </c>
-      <c r="C139" s="4" t="inlineStr"/>
+      <c r="C139" s="4" t="inlineStr">
+        <is>
+          <t>Leandro dos Santos Pestana</t>
+        </is>
+      </c>
       <c r="D139" s="10" t="inlineStr">
         <is>
           <t>Cassio Henrique de Souza</t>
@@ -4861,7 +5113,11 @@
           <t>Segunda</t>
         </is>
       </c>
-      <c r="C142" s="4" t="inlineStr"/>
+      <c r="C142" s="4" t="inlineStr">
+        <is>
+          <t>Muriel D’Avila da Cunha</t>
+        </is>
+      </c>
       <c r="D142" s="4" t="inlineStr">
         <is>
           <t>Anderson Sérgio Romão</t>
@@ -4927,7 +5183,11 @@
           <t>Quarta</t>
         </is>
       </c>
-      <c r="C144" s="4" t="inlineStr"/>
+      <c r="C144" s="4" t="inlineStr">
+        <is>
+          <t>Nivaldo Souza Ferreira Junior</t>
+        </is>
+      </c>
       <c r="D144" s="4" t="inlineStr">
         <is>
           <t>Cassio Henrique de Souza</t>
@@ -4993,7 +5253,11 @@
           <t>Sexta</t>
         </is>
       </c>
-      <c r="C146" s="4" t="inlineStr"/>
+      <c r="C146" s="4" t="inlineStr">
+        <is>
+          <t>Paulo Emilio Terra</t>
+        </is>
+      </c>
       <c r="D146" s="10" t="inlineStr">
         <is>
           <t>Wellinghton Yugi Daikubara</t>
@@ -5094,7 +5358,11 @@
           <t>Segunda</t>
         </is>
       </c>
-      <c r="C149" s="4" t="inlineStr"/>
+      <c r="C149" s="4" t="inlineStr">
+        <is>
+          <t>Rafael Mandu</t>
+        </is>
+      </c>
       <c r="D149" s="4" t="inlineStr">
         <is>
           <t>Cassio Henrique de Souza</t>
@@ -5160,7 +5428,11 @@
           <t>Quarta</t>
         </is>
       </c>
-      <c r="C151" s="4" t="inlineStr"/>
+      <c r="C151" s="4" t="inlineStr">
+        <is>
+          <t>Ramon Galvão Zeferino</t>
+        </is>
+      </c>
       <c r="D151" s="4" t="inlineStr">
         <is>
           <t>Bruno Miranda Maciozek</t>
@@ -5191,7 +5463,11 @@
           <t>Quinta</t>
         </is>
       </c>
-      <c r="C152" s="4" t="inlineStr"/>
+      <c r="C152" s="4" t="inlineStr">
+        <is>
+          <t>Rodrigo Cruz dos Santos</t>
+        </is>
+      </c>
       <c r="D152" s="4" t="inlineStr">
         <is>
           <t>Douglas Miller Morais</t>
@@ -5327,7 +5603,11 @@
           <t>Segunda</t>
         </is>
       </c>
-      <c r="C156" s="8" t="inlineStr"/>
+      <c r="C156" s="8" t="inlineStr">
+        <is>
+          <t>Thais Emi Fujihara</t>
+        </is>
+      </c>
       <c r="D156" s="8" t="inlineStr">
         <is>
           <t>Isabelle Sousa Falcão</t>
@@ -5358,7 +5638,11 @@
           <t>Terça</t>
         </is>
       </c>
-      <c r="C157" s="8" t="inlineStr"/>
+      <c r="C157" s="8" t="inlineStr">
+        <is>
+          <t>Wellinghton Yugi Daikubara</t>
+        </is>
+      </c>
       <c r="D157" s="8" t="inlineStr">
         <is>
           <t>Fabricio Ortolan</t>
@@ -5424,7 +5708,11 @@
           <t>Quinta</t>
         </is>
       </c>
-      <c r="C159" s="8" t="inlineStr"/>
+      <c r="C159" s="8" t="inlineStr">
+        <is>
+          <t>Anderson Sérgio Romão</t>
+        </is>
+      </c>
       <c r="D159" s="8" t="inlineStr">
         <is>
           <t>Cassio Henrique de Souza</t>
@@ -5595,7 +5883,11 @@
           <t>Terça</t>
         </is>
       </c>
-      <c r="C164" s="8" t="inlineStr"/>
+      <c r="C164" s="8" t="inlineStr">
+        <is>
+          <t>André Silva Dzindzik</t>
+        </is>
+      </c>
       <c r="D164" s="8" t="inlineStr">
         <is>
           <t>Cassio Henrique de Souza</t>
@@ -5661,7 +5953,11 @@
           <t>Quinta</t>
         </is>
       </c>
-      <c r="C166" s="8" t="inlineStr"/>
+      <c r="C166" s="8" t="inlineStr">
+        <is>
+          <t>Andreza de Oliveira Santos Prestes</t>
+        </is>
+      </c>
       <c r="D166" s="8" t="inlineStr">
         <is>
           <t>João Lucas Vieira Caetano</t>
@@ -5692,7 +5988,11 @@
           <t>Sexta</t>
         </is>
       </c>
-      <c r="C167" s="8" t="inlineStr"/>
+      <c r="C167" s="8" t="inlineStr">
+        <is>
+          <t>Ana Carolina H. de Miranda Castro</t>
+        </is>
+      </c>
       <c r="D167" s="9" t="inlineStr">
         <is>
           <t>Douglas Miller Morais</t>
@@ -5828,7 +6128,11 @@
           <t>Terça</t>
         </is>
       </c>
-      <c r="C171" s="8" t="inlineStr"/>
+      <c r="C171" s="8" t="inlineStr">
+        <is>
+          <t>Bruno Miranda Maciozek</t>
+        </is>
+      </c>
       <c r="D171" s="8" t="inlineStr">
         <is>
           <t>Laryssa Grandis de Lima</t>
@@ -5859,7 +6163,11 @@
           <t>Quarta</t>
         </is>
       </c>
-      <c r="C172" s="8" t="inlineStr"/>
+      <c r="C172" s="8" t="inlineStr">
+        <is>
+          <t>Douglas Miller Morais</t>
+        </is>
+      </c>
       <c r="D172" s="8" t="inlineStr">
         <is>
           <t>Leandro dos Santos Pestana</t>
@@ -5925,7 +6233,11 @@
           <t>Sexta</t>
         </is>
       </c>
-      <c r="C174" s="8" t="inlineStr"/>
+      <c r="C174" s="8" t="inlineStr">
+        <is>
+          <t>Fabricio Ortolan</t>
+        </is>
+      </c>
       <c r="D174" s="9" t="inlineStr">
         <is>
           <t>Cassio Henrique de Souza</t>
@@ -6026,7 +6338,11 @@
           <t>Segunda</t>
         </is>
       </c>
-      <c r="C177" s="8" t="inlineStr"/>
+      <c r="C177" s="8" t="inlineStr">
+        <is>
+          <t>Isabelle Sousa Falcão</t>
+        </is>
+      </c>
       <c r="D177" s="8" t="inlineStr">
         <is>
           <t>Muriel D’Avila da Cunha</t>
@@ -6092,7 +6408,11 @@
           <t>Quarta</t>
         </is>
       </c>
-      <c r="C179" s="8" t="inlineStr"/>
+      <c r="C179" s="8" t="inlineStr">
+        <is>
+          <t>João Lucas Vieira Caetano</t>
+        </is>
+      </c>
       <c r="D179" s="8" t="inlineStr">
         <is>
           <t>Cassio Henrique de Souza</t>
@@ -6158,7 +6478,11 @@
           <t>Sexta</t>
         </is>
       </c>
-      <c r="C181" s="8" t="inlineStr"/>
+      <c r="C181" s="8" t="inlineStr">
+        <is>
+          <t>Laryssa Grandis de Lima</t>
+        </is>
+      </c>
       <c r="D181" s="9" t="inlineStr">
         <is>
           <t>João Lucas Vieira Caetano</t>
@@ -6259,7 +6583,11 @@
           <t>Segunda</t>
         </is>
       </c>
-      <c r="C184" s="8" t="inlineStr"/>
+      <c r="C184" s="8" t="inlineStr">
+        <is>
+          <t>Karoliny Neves Marques</t>
+        </is>
+      </c>
       <c r="D184" s="8" t="inlineStr">
         <is>
           <t>Cassio Henrique de Souza</t>
@@ -6325,7 +6653,11 @@
           <t>Quarta</t>
         </is>
       </c>
-      <c r="C186" s="8" t="inlineStr"/>
+      <c r="C186" s="8" t="inlineStr">
+        <is>
+          <t>Leandro dos Santos Pestana</t>
+        </is>
+      </c>
       <c r="D186" s="8" t="inlineStr">
         <is>
           <t>Rafael Mandu</t>
@@ -22639,7 +22971,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22694,7 +23026,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
@@ -22706,7 +23038,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -22716,7 +23048,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
@@ -22728,7 +23060,7 @@
         <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -22738,7 +23070,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -22750,7 +23082,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -22760,7 +23092,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -22772,7 +23104,7 @@
         <v>3</v>
       </c>
       <c r="F5" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -22782,7 +23114,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
@@ -22794,7 +23126,7 @@
         <v>3</v>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -22826,7 +23158,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
@@ -22838,7 +23170,7 @@
         <v>3</v>
       </c>
       <c r="F8" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -22848,7 +23180,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -22860,7 +23192,7 @@
         <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -22870,7 +23202,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
@@ -22882,7 +23214,7 @@
         <v>3</v>
       </c>
       <c r="F10" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -22892,7 +23224,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
@@ -22904,7 +23236,7 @@
         <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -22936,7 +23268,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
@@ -22948,7 +23280,7 @@
         <v>3</v>
       </c>
       <c r="F13" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -22958,7 +23290,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
         <v>4</v>
@@ -22970,7 +23302,7 @@
         <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -22980,7 +23312,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
@@ -22992,7 +23324,7 @@
         <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -23002,7 +23334,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
         <v>4</v>
@@ -23014,7 +23346,7 @@
         <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -23024,7 +23356,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
         <v>4</v>
@@ -23036,7 +23368,7 @@
         <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -23046,7 +23378,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
         <v>4</v>
@@ -23058,7 +23390,7 @@
         <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -23068,7 +23400,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
         <v>4</v>
@@ -23080,7 +23412,7 @@
         <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -23090,7 +23422,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
         <v>3</v>
@@ -23102,7 +23434,7 @@
         <v>2</v>
       </c>
       <c r="F20" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -23112,7 +23444,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
         <v>3</v>
@@ -23124,39 +23456,39 @@
         <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Thais Emi Fujihara</t>
+          <t>TESTE</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Wellinghton Yugi Daikubara</t>
+          <t>Thais Emi Fujihara</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C23" t="n">
         <v>3</v>
@@ -23168,7 +23500,29 @@
         <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>6</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Wellinghton Yugi Daikubara</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>5</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
